--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Fn1-Itga2b.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Fn1-Itga2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H2">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I2">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J2">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.400249129426562</v>
+        <v>0.6399373333333334</v>
       </c>
       <c r="N2">
-        <v>0.400249129426562</v>
+        <v>1.919812</v>
       </c>
       <c r="O2">
-        <v>0.08181201418882413</v>
+        <v>0.1015058438988617</v>
       </c>
       <c r="P2">
-        <v>0.08181201418882413</v>
+        <v>0.1015058438988617</v>
       </c>
       <c r="Q2">
-        <v>4.503658534477439</v>
+        <v>12.68056389319644</v>
       </c>
       <c r="R2">
-        <v>4.503658534477439</v>
+        <v>114.125075038768</v>
       </c>
       <c r="S2">
-        <v>0.0013446270368174</v>
+        <v>0.002485778198116646</v>
       </c>
       <c r="T2">
-        <v>0.0013446270368174</v>
+        <v>0.002485778198116646</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H3">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I3">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J3">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.06362722406337</v>
+        <v>2.391463333333334</v>
       </c>
       <c r="N3">
-        <v>2.06362722406337</v>
+        <v>7.174390000000001</v>
       </c>
       <c r="O3">
-        <v>0.4218110354853205</v>
+        <v>0.3793301174331417</v>
       </c>
       <c r="P3">
-        <v>0.4218110354853205</v>
+        <v>0.3793301174331418</v>
       </c>
       <c r="Q3">
-        <v>23.22021879959699</v>
+        <v>47.38761440688445</v>
       </c>
       <c r="R3">
-        <v>23.22021879959699</v>
+        <v>426.48852966196</v>
       </c>
       <c r="S3">
-        <v>0.006932704546699506</v>
+        <v>0.009289421176024574</v>
       </c>
       <c r="T3">
-        <v>0.006932704546699506</v>
+        <v>0.009289421176024574</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H4">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I4">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J4">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.412941522219357</v>
+        <v>0.4216996666666666</v>
       </c>
       <c r="N4">
-        <v>0.412941522219357</v>
+        <v>1.265099</v>
       </c>
       <c r="O4">
-        <v>0.0844063739085866</v>
+        <v>0.06688933166924994</v>
       </c>
       <c r="P4">
-        <v>0.0844063739085866</v>
+        <v>0.06688933166924996</v>
       </c>
       <c r="Q4">
-        <v>4.64647509276979</v>
+        <v>8.356114401159555</v>
       </c>
       <c r="R4">
-        <v>4.64647509276979</v>
+        <v>75.205029610436</v>
       </c>
       <c r="S4">
-        <v>0.001387266816035782</v>
+        <v>0.001638053888953278</v>
       </c>
       <c r="T4">
-        <v>0.001387266816035782</v>
+        <v>0.001638053888953278</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H5">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I5">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J5">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.791115369800551</v>
+        <v>0.3092193333333333</v>
       </c>
       <c r="N5">
-        <v>0.791115369800551</v>
+        <v>0.9276579999999999</v>
       </c>
       <c r="O5">
-        <v>0.161706140252817</v>
+        <v>0.0490478797608986</v>
       </c>
       <c r="P5">
-        <v>0.161706140252817</v>
+        <v>0.0490478797608986</v>
       </c>
       <c r="Q5">
-        <v>8.90173950425107</v>
+        <v>6.12728045247911</v>
       </c>
       <c r="R5">
-        <v>8.90173950425107</v>
+        <v>55.14552407231199</v>
       </c>
       <c r="S5">
-        <v>0.002657732490260906</v>
+        <v>0.001201134294247818</v>
       </c>
       <c r="T5">
-        <v>0.002657732490260906</v>
+        <v>0.001201134294247818</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H6">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I6">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J6">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.22436935081516</v>
+        <v>0.8474593333333335</v>
       </c>
       <c r="N6">
-        <v>1.22436935081516</v>
+        <v>2.542378</v>
       </c>
       <c r="O6">
-        <v>0.2502644361644519</v>
+        <v>0.1344226540931614</v>
       </c>
       <c r="P6">
-        <v>0.2502644361644519</v>
+        <v>0.1344226540931614</v>
       </c>
       <c r="Q6">
-        <v>13.77677319136565</v>
+        <v>16.79267900693245</v>
       </c>
       <c r="R6">
-        <v>13.77677319136565</v>
+        <v>151.134111062392</v>
       </c>
       <c r="S6">
-        <v>0.004113238508514233</v>
+        <v>0.003291878477565201</v>
       </c>
       <c r="T6">
-        <v>0.004113238508514233</v>
+        <v>0.003291878477565202</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>517.977351898144</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H7">
-        <v>517.977351898144</v>
+        <v>59.445964</v>
       </c>
       <c r="I7">
-        <v>0.7565897727891929</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J7">
-        <v>0.7565897727891929</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.400249129426562</v>
+        <v>1.694659333333333</v>
       </c>
       <c r="N7">
-        <v>0.400249129426562</v>
+        <v>5.083978</v>
       </c>
       <c r="O7">
-        <v>0.08181201418882413</v>
+        <v>0.2688041731446867</v>
       </c>
       <c r="P7">
-        <v>0.08181201418882413</v>
+        <v>0.2688041731446867</v>
       </c>
       <c r="Q7">
-        <v>207.3199841599081</v>
+        <v>33.58021924053244</v>
       </c>
       <c r="R7">
-        <v>207.3199841599081</v>
+        <v>302.221973164792</v>
       </c>
       <c r="S7">
-        <v>0.06189813322654867</v>
+        <v>0.006582749598452699</v>
       </c>
       <c r="T7">
-        <v>0.06189813322654867</v>
+        <v>0.006582749598452699</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H8">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I8">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J8">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.06362722406337</v>
+        <v>0.6399373333333334</v>
       </c>
       <c r="N8">
-        <v>2.06362722406337</v>
+        <v>1.919812</v>
       </c>
       <c r="O8">
-        <v>0.4218110354853205</v>
+        <v>0.1015058438988617</v>
       </c>
       <c r="P8">
-        <v>0.4218110354853205</v>
+        <v>0.1015058438988617</v>
       </c>
       <c r="Q8">
-        <v>1068.912164825262</v>
+        <v>339.3584801081791</v>
       </c>
       <c r="R8">
-        <v>1068.912164825262</v>
+        <v>3054.226320973612</v>
       </c>
       <c r="S8">
-        <v>0.3191379154978128</v>
+        <v>0.06652463709847456</v>
       </c>
       <c r="T8">
-        <v>0.3191379154978128</v>
+        <v>0.06652463709847457</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H9">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I9">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J9">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.412941522219357</v>
+        <v>2.391463333333334</v>
       </c>
       <c r="N9">
-        <v>0.412941522219357</v>
+        <v>7.174390000000001</v>
       </c>
       <c r="O9">
-        <v>0.0844063739085866</v>
+        <v>0.3793301174331417</v>
       </c>
       <c r="P9">
-        <v>0.0844063739085866</v>
+        <v>0.3793301174331418</v>
       </c>
       <c r="Q9">
-        <v>213.8943561679711</v>
+        <v>1268.191930305321</v>
       </c>
       <c r="R9">
-        <v>213.8943561679711</v>
+        <v>11413.72737274789</v>
       </c>
       <c r="S9">
-        <v>0.0638609992574572</v>
+        <v>0.2486043899886681</v>
       </c>
       <c r="T9">
-        <v>0.0638609992574572</v>
+        <v>0.2486043899886682</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H10">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I10">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J10">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.791115369800551</v>
+        <v>0.4216996666666666</v>
       </c>
       <c r="N10">
-        <v>0.791115369800551</v>
+        <v>1.265099</v>
       </c>
       <c r="O10">
-        <v>0.161706140252817</v>
+        <v>0.06688933166924994</v>
       </c>
       <c r="P10">
-        <v>0.161706140252817</v>
+        <v>0.06688933166924996</v>
       </c>
       <c r="Q10">
-        <v>409.7798442952103</v>
+        <v>223.6271436090499</v>
       </c>
       <c r="R10">
-        <v>409.7798442952103</v>
+        <v>2012.644292481449</v>
       </c>
       <c r="S10">
-        <v>0.1223452119124961</v>
+        <v>0.04383775696195412</v>
       </c>
       <c r="T10">
-        <v>0.1223452119124961</v>
+        <v>0.04383775696195413</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H11">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I11">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J11">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>1.22436935081516</v>
+        <v>0.3092193333333333</v>
       </c>
       <c r="N11">
-        <v>1.22436935081516</v>
+        <v>0.9276579999999999</v>
       </c>
       <c r="O11">
-        <v>0.2502644361644519</v>
+        <v>0.0490478797608986</v>
       </c>
       <c r="P11">
-        <v>0.2502644361644519</v>
+        <v>0.0490478797608986</v>
       </c>
       <c r="Q11">
-        <v>634.1955940804862</v>
+        <v>163.9788734210397</v>
       </c>
       <c r="R11">
-        <v>634.1955940804862</v>
+        <v>1475.809860789358</v>
       </c>
       <c r="S11">
-        <v>0.1893475128948781</v>
+        <v>0.0321448724153702</v>
       </c>
       <c r="T11">
-        <v>0.1893475128948781</v>
+        <v>0.03214487241537021</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>34.8465022971811</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H12">
-        <v>34.8465022971811</v>
+        <v>1590.898651</v>
       </c>
       <c r="I12">
-        <v>0.05089895756814228</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J12">
-        <v>0.05089895756814228</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.400249129426562</v>
+        <v>0.8474593333333335</v>
       </c>
       <c r="N12">
-        <v>0.400249129426562</v>
+        <v>2.542378</v>
       </c>
       <c r="O12">
-        <v>0.08181201418882413</v>
+        <v>0.1344226540931614</v>
       </c>
       <c r="P12">
-        <v>0.08181201418882413</v>
+        <v>0.1344226540931614</v>
       </c>
       <c r="Q12">
-        <v>13.94728220800743</v>
+        <v>449.4073033924531</v>
       </c>
       <c r="R12">
-        <v>13.94728220800743</v>
+        <v>4044.665730532078</v>
       </c>
       <c r="S12">
-        <v>0.004164146238761214</v>
+        <v>0.0880975709169156</v>
       </c>
       <c r="T12">
-        <v>0.004164146238761214</v>
+        <v>0.08809757091691563</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>34.8465022971811</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H13">
-        <v>34.8465022971811</v>
+        <v>1590.898651</v>
       </c>
       <c r="I13">
-        <v>0.05089895756814228</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J13">
-        <v>0.05089895756814228</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.06362722406337</v>
+        <v>1.694659333333333</v>
       </c>
       <c r="N13">
-        <v>2.06362722406337</v>
+        <v>5.083978</v>
       </c>
       <c r="O13">
-        <v>0.4218110354853205</v>
+        <v>0.2688041731446867</v>
       </c>
       <c r="P13">
-        <v>0.4218110354853205</v>
+        <v>0.2688041731446867</v>
       </c>
       <c r="Q13">
-        <v>71.91019080384967</v>
+        <v>898.677082434853</v>
       </c>
       <c r="R13">
-        <v>71.91019080384967</v>
+        <v>8088.093741913678</v>
       </c>
       <c r="S13">
-        <v>0.02146974199694148</v>
+        <v>0.1761681828567737</v>
       </c>
       <c r="T13">
-        <v>0.02146974199694148</v>
+        <v>0.1761681828567738</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H14">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I14">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J14">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.412941522219357</v>
+        <v>0.6399373333333334</v>
       </c>
       <c r="N14">
-        <v>0.412941522219357</v>
+        <v>1.919812</v>
       </c>
       <c r="O14">
-        <v>0.0844063739085866</v>
+        <v>0.1015058438988617</v>
       </c>
       <c r="P14">
-        <v>0.0844063739085866</v>
+        <v>0.1015058438988617</v>
       </c>
       <c r="Q14">
-        <v>14.38956770261828</v>
+        <v>73.0521516630142</v>
       </c>
       <c r="R14">
-        <v>14.38956770261828</v>
+        <v>657.4693649671278</v>
       </c>
       <c r="S14">
-        <v>0.004296196444053902</v>
+        <v>0.01432045510427667</v>
       </c>
       <c r="T14">
-        <v>0.004296196444053902</v>
+        <v>0.01432045510427667</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H15">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I15">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J15">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.791115369800551</v>
+        <v>2.391463333333334</v>
       </c>
       <c r="N15">
-        <v>0.791115369800551</v>
+        <v>7.174390000000001</v>
       </c>
       <c r="O15">
-        <v>0.161706140252817</v>
+        <v>0.3793301174331417</v>
       </c>
       <c r="P15">
-        <v>0.161706140252817</v>
+        <v>0.3793301174331418</v>
       </c>
       <c r="Q15">
-        <v>27.56760355109017</v>
+        <v>272.9978906109622</v>
       </c>
       <c r="R15">
-        <v>27.56760355109017</v>
+        <v>2456.98101549866</v>
       </c>
       <c r="S15">
-        <v>0.008230673971236195</v>
+        <v>0.05351593275569247</v>
       </c>
       <c r="T15">
-        <v>0.008230673971236195</v>
+        <v>0.05351593275569248</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H16">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I16">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J16">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.22436935081516</v>
+        <v>0.4216996666666666</v>
       </c>
       <c r="N16">
-        <v>1.22436935081516</v>
+        <v>1.265099</v>
       </c>
       <c r="O16">
-        <v>0.2502644361644519</v>
+        <v>0.06688933166924994</v>
       </c>
       <c r="P16">
-        <v>0.2502644361644519</v>
+        <v>0.06688933166924996</v>
       </c>
       <c r="Q16">
-        <v>42.6649893957786</v>
+        <v>48.13919488821176</v>
       </c>
       <c r="R16">
-        <v>42.6649893957786</v>
+        <v>433.2527539939059</v>
       </c>
       <c r="S16">
-        <v>0.01273819891714949</v>
+        <v>0.00943675392797071</v>
       </c>
       <c r="T16">
-        <v>0.01273819891714949</v>
+        <v>0.009436753927970712</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>41.9659636424671</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H17">
-        <v>41.9659636424671</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I17">
-        <v>0.06129808336364732</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J17">
-        <v>0.06129808336364732</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.400249129426562</v>
+        <v>0.3092193333333333</v>
       </c>
       <c r="N17">
-        <v>0.400249129426562</v>
+        <v>0.9276579999999999</v>
       </c>
       <c r="O17">
-        <v>0.08181201418882413</v>
+        <v>0.0490478797608986</v>
       </c>
       <c r="P17">
-        <v>0.08181201418882413</v>
+        <v>0.0490478797608986</v>
       </c>
       <c r="Q17">
-        <v>16.79684041344421</v>
+        <v>35.29898391478354</v>
       </c>
       <c r="R17">
-        <v>16.79684041344421</v>
+        <v>317.6908552330519</v>
       </c>
       <c r="S17">
-        <v>0.005014919665894439</v>
+        <v>0.006919680021337027</v>
       </c>
       <c r="T17">
-        <v>0.005014919665894439</v>
+        <v>0.006919680021337028</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>41.9659636424671</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H18">
-        <v>41.9659636424671</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I18">
-        <v>0.06129808336364732</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J18">
-        <v>0.06129808336364732</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.06362722406337</v>
+        <v>0.8474593333333335</v>
       </c>
       <c r="N18">
-        <v>2.06362722406337</v>
+        <v>2.542378</v>
       </c>
       <c r="O18">
-        <v>0.4218110354853205</v>
+        <v>0.1344226540931614</v>
       </c>
       <c r="P18">
-        <v>0.4218110354853205</v>
+        <v>0.1344226540931614</v>
       </c>
       <c r="Q18">
-        <v>86.6021050566487</v>
+        <v>96.74185974497021</v>
       </c>
       <c r="R18">
-        <v>86.6021050566487</v>
+        <v>870.6767377047319</v>
       </c>
       <c r="S18">
-        <v>0.02585620801688557</v>
+        <v>0.01896436213915774</v>
       </c>
       <c r="T18">
-        <v>0.02585620801688557</v>
+        <v>0.01896436213915775</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>41.9659636424671</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H19">
-        <v>41.9659636424671</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I19">
-        <v>0.06129808336364732</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J19">
-        <v>0.06129808336364732</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.412941522219357</v>
+        <v>1.694659333333333</v>
       </c>
       <c r="N19">
-        <v>0.412941522219357</v>
+        <v>5.083978</v>
       </c>
       <c r="O19">
-        <v>0.0844063739085866</v>
+        <v>0.2688041731446867</v>
       </c>
       <c r="P19">
-        <v>0.0844063739085866</v>
+        <v>0.2688041731446867</v>
       </c>
       <c r="Q19">
-        <v>17.32948890792256</v>
+        <v>193.4541152505702</v>
       </c>
       <c r="R19">
-        <v>17.32948890792256</v>
+        <v>1741.087037255132</v>
       </c>
       <c r="S19">
-        <v>0.005173948944271728</v>
+        <v>0.03792292094232678</v>
       </c>
       <c r="T19">
-        <v>0.005173948944271728</v>
+        <v>0.03792292094232679</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H20">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I20">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J20">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.791115369800551</v>
+        <v>0.6399373333333334</v>
       </c>
       <c r="N20">
-        <v>0.791115369800551</v>
+        <v>1.919812</v>
       </c>
       <c r="O20">
-        <v>0.161706140252817</v>
+        <v>0.1015058438988617</v>
       </c>
       <c r="P20">
-        <v>0.161706140252817</v>
+        <v>0.1015058438988617</v>
       </c>
       <c r="Q20">
-        <v>33.19991884604684</v>
+        <v>27.08857121099378</v>
       </c>
       <c r="R20">
-        <v>33.19991884604684</v>
+        <v>243.797140898944</v>
       </c>
       <c r="S20">
-        <v>0.00991227646563082</v>
+        <v>0.005310188119516257</v>
       </c>
       <c r="T20">
-        <v>0.00991227646563082</v>
+        <v>0.005310188119516258</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H21">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I21">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J21">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.22436935081516</v>
+        <v>2.391463333333334</v>
       </c>
       <c r="N21">
-        <v>1.22436935081516</v>
+        <v>7.174390000000001</v>
       </c>
       <c r="O21">
-        <v>0.2502644361644519</v>
+        <v>0.3793301174331417</v>
       </c>
       <c r="P21">
-        <v>0.2502644361644519</v>
+        <v>0.3793301174331418</v>
       </c>
       <c r="Q21">
-        <v>51.38183966126006</v>
+        <v>101.2307321812978</v>
       </c>
       <c r="R21">
-        <v>51.38183966126006</v>
+        <v>911.07658963168</v>
       </c>
       <c r="S21">
-        <v>0.01534073027096476</v>
+        <v>0.01984431837220324</v>
       </c>
       <c r="T21">
-        <v>0.01534073027096476</v>
+        <v>0.01984431837220324</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>38.8948812832746</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H22">
-        <v>38.8948812832746</v>
+        <v>126.990112</v>
       </c>
       <c r="I22">
-        <v>0.05681227043023694</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J22">
-        <v>0.05681227043023694</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.400249129426562</v>
+        <v>0.4216996666666666</v>
       </c>
       <c r="N22">
-        <v>0.400249129426562</v>
+        <v>1.265099</v>
       </c>
       <c r="O22">
-        <v>0.08181201418882413</v>
+        <v>0.06688933166924994</v>
       </c>
       <c r="P22">
-        <v>0.08181201418882413</v>
+        <v>0.06688933166924996</v>
       </c>
       <c r="Q22">
-        <v>15.56764237278014</v>
+        <v>17.85056263345422</v>
       </c>
       <c r="R22">
-        <v>15.56764237278014</v>
+        <v>160.655063701088</v>
       </c>
       <c r="S22">
-        <v>0.004647926274537858</v>
+        <v>0.00349925601038638</v>
       </c>
       <c r="T22">
-        <v>0.004647926274537858</v>
+        <v>0.00349925601038638</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>38.8948812832746</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H23">
-        <v>38.8948812832746</v>
+        <v>126.990112</v>
       </c>
       <c r="I23">
-        <v>0.05681227043023694</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J23">
-        <v>0.05681227043023694</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>2.06362722406337</v>
+        <v>0.3092193333333333</v>
       </c>
       <c r="N23">
-        <v>2.06362722406337</v>
+        <v>0.9276579999999999</v>
       </c>
       <c r="O23">
-        <v>0.4218110354853205</v>
+        <v>0.0490478797608986</v>
       </c>
       <c r="P23">
-        <v>0.4218110354853205</v>
+        <v>0.0490478797608986</v>
       </c>
       <c r="Q23">
-        <v>80.26453589287829</v>
+        <v>13.08926592418844</v>
       </c>
       <c r="R23">
-        <v>80.26453589287829</v>
+        <v>117.803393317696</v>
       </c>
       <c r="S23">
-        <v>0.0239640426184503</v>
+        <v>0.002565896291185913</v>
       </c>
       <c r="T23">
-        <v>0.0239640426184503</v>
+        <v>0.002565896291185914</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>38.8948812832746</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H24">
-        <v>38.8948812832746</v>
+        <v>126.990112</v>
       </c>
       <c r="I24">
-        <v>0.05681227043023694</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J24">
-        <v>0.05681227043023694</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.412941522219357</v>
+        <v>0.8474593333333335</v>
       </c>
       <c r="N24">
-        <v>0.412941522219357</v>
+        <v>2.542378</v>
       </c>
       <c r="O24">
-        <v>0.0844063739085866</v>
+        <v>0.1344226540931614</v>
       </c>
       <c r="P24">
-        <v>0.0844063739085866</v>
+        <v>0.1344226540931614</v>
       </c>
       <c r="Q24">
-        <v>16.06131148365659</v>
+        <v>35.87298521848178</v>
       </c>
       <c r="R24">
-        <v>16.06131148365659</v>
+        <v>322.856866966336</v>
       </c>
       <c r="S24">
-        <v>0.004795317740530317</v>
+        <v>0.007032201825449316</v>
       </c>
       <c r="T24">
-        <v>0.004795317740530317</v>
+        <v>0.007032201825449317</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>38.8948812832746</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H25">
-        <v>38.8948812832746</v>
+        <v>126.990112</v>
       </c>
       <c r="I25">
-        <v>0.05681227043023694</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J25">
-        <v>0.05681227043023694</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.791115369800551</v>
+        <v>1.694659333333333</v>
       </c>
       <c r="N25">
-        <v>0.791115369800551</v>
+        <v>5.083978</v>
       </c>
       <c r="O25">
-        <v>0.161706140252817</v>
+        <v>0.2688041731446867</v>
       </c>
       <c r="P25">
-        <v>0.161706140252817</v>
+        <v>0.2688041731446867</v>
       </c>
       <c r="Q25">
-        <v>30.77033838976631</v>
+        <v>71.73499284728177</v>
       </c>
       <c r="R25">
-        <v>30.77033838976631</v>
+        <v>645.614935625536</v>
       </c>
       <c r="S25">
-        <v>0.009186892970272861</v>
+        <v>0.01406225170770993</v>
       </c>
       <c r="T25">
-        <v>0.009186892970272861</v>
+        <v>0.01406225170770993</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H26">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I26">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J26">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.22436935081516</v>
+        <v>0.6399373333333334</v>
       </c>
       <c r="N26">
-        <v>1.22436935081516</v>
+        <v>1.919812</v>
       </c>
       <c r="O26">
-        <v>0.2502644361644519</v>
+        <v>0.1015058438988617</v>
       </c>
       <c r="P26">
-        <v>0.2502644361644519</v>
+        <v>0.1015058438988617</v>
       </c>
       <c r="Q26">
-        <v>47.62170054683564</v>
+        <v>29.57830180100044</v>
       </c>
       <c r="R26">
-        <v>47.62170054683564</v>
+        <v>266.204716209004</v>
       </c>
       <c r="S26">
-        <v>0.01421809082644561</v>
+        <v>0.005798251432153578</v>
       </c>
       <c r="T26">
-        <v>0.01421809082644561</v>
+        <v>0.005798251432153579</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>39.684301501429</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H27">
-        <v>39.684301501429</v>
+        <v>138.661867</v>
       </c>
       <c r="I27">
-        <v>0.05796534645045275</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J27">
-        <v>0.05796534645045275</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.400249129426562</v>
+        <v>2.391463333333334</v>
       </c>
       <c r="N27">
-        <v>0.400249129426562</v>
+        <v>7.174390000000001</v>
       </c>
       <c r="O27">
-        <v>0.08181201418882413</v>
+        <v>0.3793301174331417</v>
       </c>
       <c r="P27">
-        <v>0.08181201418882413</v>
+        <v>0.3793301174331418</v>
       </c>
       <c r="Q27">
-        <v>15.88360712784816</v>
+        <v>110.5349235540145</v>
       </c>
       <c r="R27">
-        <v>15.88360712784816</v>
+        <v>994.8143119861301</v>
       </c>
       <c r="S27">
-        <v>0.004742261746264546</v>
+        <v>0.02166822433255356</v>
       </c>
       <c r="T27">
-        <v>0.004742261746264546</v>
+        <v>0.02166822433255356</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,60 +2146,60 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>39.684301501429</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H28">
-        <v>39.684301501429</v>
+        <v>138.661867</v>
       </c>
       <c r="I28">
-        <v>0.05796534645045275</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J28">
-        <v>0.05796534645045275</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>2.06362722406337</v>
+        <v>0.4216996666666666</v>
       </c>
       <c r="N28">
-        <v>2.06362722406337</v>
+        <v>1.265099</v>
       </c>
       <c r="O28">
-        <v>0.4218110354853205</v>
+        <v>0.06688933166924994</v>
       </c>
       <c r="P28">
-        <v>0.4218110354853205</v>
+        <v>0.06688933166924996</v>
       </c>
       <c r="Q28">
-        <v>81.89360494628775</v>
+        <v>19.49122103109255</v>
       </c>
       <c r="R28">
-        <v>81.89360494628775</v>
+        <v>175.420989279833</v>
       </c>
       <c r="S28">
-        <v>0.02445042280853082</v>
+        <v>0.00382087521515964</v>
       </c>
       <c r="T28">
-        <v>0.02445042280853082</v>
+        <v>0.003820875215159641</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,60 +2208,60 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>39.684301501429</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H29">
-        <v>39.684301501429</v>
+        <v>138.661867</v>
       </c>
       <c r="I29">
-        <v>0.05796534645045275</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J29">
-        <v>0.05796534645045275</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M29">
-        <v>0.412941522219357</v>
+        <v>0.3092193333333333</v>
       </c>
       <c r="N29">
-        <v>0.412941522219357</v>
+        <v>0.9276579999999999</v>
       </c>
       <c r="O29">
-        <v>0.0844063739085866</v>
+        <v>0.0490478797608986</v>
       </c>
       <c r="P29">
-        <v>0.0844063739085866</v>
+        <v>0.0490478797608986</v>
       </c>
       <c r="Q29">
-        <v>16.387295870212</v>
+        <v>14.29231002416511</v>
       </c>
       <c r="R29">
-        <v>16.387295870212</v>
+        <v>128.630790217486</v>
       </c>
       <c r="S29">
-        <v>0.004892644706237678</v>
+        <v>0.002801729714705775</v>
       </c>
       <c r="T29">
-        <v>0.004892644706237678</v>
+        <v>0.002801729714705775</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>39.684301501429</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H30">
-        <v>39.684301501429</v>
+        <v>138.661867</v>
       </c>
       <c r="I30">
-        <v>0.05796534645045275</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J30">
-        <v>0.05796534645045275</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.791115369800551</v>
+        <v>0.8474593333333335</v>
       </c>
       <c r="N30">
-        <v>0.791115369800551</v>
+        <v>2.542378</v>
       </c>
       <c r="O30">
-        <v>0.161706140252817</v>
+        <v>0.1344226540931614</v>
       </c>
       <c r="P30">
-        <v>0.161706140252817</v>
+        <v>0.1344226540931614</v>
       </c>
       <c r="Q30">
-        <v>31.39486085757956</v>
+        <v>39.17009778885845</v>
       </c>
       <c r="R30">
-        <v>31.39486085757956</v>
+        <v>352.5308800997261</v>
       </c>
       <c r="S30">
-        <v>0.009373352442920037</v>
+        <v>0.007678536689829916</v>
       </c>
       <c r="T30">
-        <v>0.009373352442920037</v>
+        <v>0.007678536689829918</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>39.684301501429</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H31">
-        <v>39.684301501429</v>
+        <v>138.661867</v>
       </c>
       <c r="I31">
-        <v>0.05796534645045275</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J31">
-        <v>0.05796534645045275</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.22436935081516</v>
+        <v>1.694659333333333</v>
       </c>
       <c r="N31">
-        <v>1.22436935081516</v>
+        <v>5.083978</v>
       </c>
       <c r="O31">
-        <v>0.2502644361644519</v>
+        <v>0.2688041731446867</v>
       </c>
       <c r="P31">
-        <v>0.2502644361644519</v>
+        <v>0.2688041731446867</v>
       </c>
       <c r="Q31">
-        <v>48.58824246685771</v>
+        <v>78.32820902965844</v>
       </c>
       <c r="R31">
-        <v>48.58824246685771</v>
+        <v>704.953881266926</v>
       </c>
       <c r="S31">
-        <v>0.01450666474649967</v>
+        <v>0.01535472364978304</v>
       </c>
       <c r="T31">
-        <v>0.01450666474649967</v>
+        <v>0.01535472364978305</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>56.330706</v>
+      </c>
+      <c r="H32">
+        <v>168.992118</v>
+      </c>
+      <c r="I32">
+        <v>0.06961701587708551</v>
+      </c>
+      <c r="J32">
+        <v>0.06961701587708552</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.6399373333333334</v>
+      </c>
+      <c r="N32">
+        <v>1.919812</v>
+      </c>
+      <c r="O32">
+        <v>0.1015058438988617</v>
+      </c>
+      <c r="P32">
+        <v>0.1015058438988617</v>
+      </c>
+      <c r="Q32">
+        <v>36.048121782424</v>
+      </c>
+      <c r="R32">
+        <v>324.433096041816</v>
+      </c>
+      <c r="S32">
+        <v>0.00706653394632402</v>
+      </c>
+      <c r="T32">
+        <v>0.007066533946324022</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>56.330706</v>
+      </c>
+      <c r="H33">
+        <v>168.992118</v>
+      </c>
+      <c r="I33">
+        <v>0.06961701587708551</v>
+      </c>
+      <c r="J33">
+        <v>0.06961701587708552</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>2.391463333333334</v>
+      </c>
+      <c r="N33">
+        <v>7.174390000000001</v>
+      </c>
+      <c r="O33">
+        <v>0.3793301174331417</v>
+      </c>
+      <c r="P33">
+        <v>0.3793301174331418</v>
+      </c>
+      <c r="Q33">
+        <v>134.71281793978</v>
+      </c>
+      <c r="R33">
+        <v>1212.41536145802</v>
+      </c>
+      <c r="S33">
+        <v>0.02640783080799974</v>
+      </c>
+      <c r="T33">
+        <v>0.02640783080799974</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>56.330706</v>
+      </c>
+      <c r="H34">
+        <v>168.992118</v>
+      </c>
+      <c r="I34">
+        <v>0.06961701587708551</v>
+      </c>
+      <c r="J34">
+        <v>0.06961701587708552</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.4216996666666666</v>
+      </c>
+      <c r="N34">
+        <v>1.265099</v>
+      </c>
+      <c r="O34">
+        <v>0.06688933166924994</v>
+      </c>
+      <c r="P34">
+        <v>0.06688933166924996</v>
+      </c>
+      <c r="Q34">
+        <v>23.754639943298</v>
+      </c>
+      <c r="R34">
+        <v>213.791759489682</v>
+      </c>
+      <c r="S34">
+        <v>0.004656635664825812</v>
+      </c>
+      <c r="T34">
+        <v>0.004656635664825813</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>56.330706</v>
+      </c>
+      <c r="H35">
+        <v>168.992118</v>
+      </c>
+      <c r="I35">
+        <v>0.06961701587708551</v>
+      </c>
+      <c r="J35">
+        <v>0.06961701587708552</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.3092193333333333</v>
+      </c>
+      <c r="N35">
+        <v>0.9276579999999999</v>
+      </c>
+      <c r="O35">
+        <v>0.0490478797608986</v>
+      </c>
+      <c r="P35">
+        <v>0.0490478797608986</v>
+      </c>
+      <c r="Q35">
+        <v>17.418543355516</v>
+      </c>
+      <c r="R35">
+        <v>156.766890199644</v>
+      </c>
+      <c r="S35">
+        <v>0.003414567024051858</v>
+      </c>
+      <c r="T35">
+        <v>0.00341456702405186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>56.330706</v>
+      </c>
+      <c r="H36">
+        <v>168.992118</v>
+      </c>
+      <c r="I36">
+        <v>0.06961701587708551</v>
+      </c>
+      <c r="J36">
+        <v>0.06961701587708552</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.8474593333333335</v>
+      </c>
+      <c r="N36">
+        <v>2.542378</v>
+      </c>
+      <c r="O36">
+        <v>0.1344226540931614</v>
+      </c>
+      <c r="P36">
+        <v>0.1344226540931614</v>
+      </c>
+      <c r="Q36">
+        <v>47.73798255295601</v>
+      </c>
+      <c r="R36">
+        <v>429.641842976604</v>
+      </c>
+      <c r="S36">
+        <v>0.009358104044243589</v>
+      </c>
+      <c r="T36">
+        <v>0.009358104044243592</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>56.330706</v>
+      </c>
+      <c r="H37">
+        <v>168.992118</v>
+      </c>
+      <c r="I37">
+        <v>0.06961701587708551</v>
+      </c>
+      <c r="J37">
+        <v>0.06961701587708552</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.694659333333333</v>
+      </c>
+      <c r="N37">
+        <v>5.083978</v>
+      </c>
+      <c r="O37">
+        <v>0.2688041731446867</v>
+      </c>
+      <c r="P37">
+        <v>0.2688041731446867</v>
+      </c>
+      <c r="Q37">
+        <v>95.461356676156</v>
+      </c>
+      <c r="R37">
+        <v>859.152210085404</v>
+      </c>
+      <c r="S37">
+        <v>0.01871334438964049</v>
+      </c>
+      <c r="T37">
+        <v>0.0187133443896405</v>
       </c>
     </row>
   </sheetData>
